--- a/results/bhi_2021/statistics/analysis_cortisol_raw_condition.xlsx
+++ b/results/bhi_2021/statistics/analysis_cortisol_raw_condition.xlsx
@@ -18,17 +18,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="85">
   <si>
     <t>parameter</t>
   </si>
   <si>
-    <t>prep__groupby</t>
-  </si>
-  <si>
-    <t>prep__group</t>
-  </si>
-  <si>
     <t>dv</t>
   </si>
   <si>
@@ -44,13 +38,13 @@
     <t>padjust</t>
   </si>
   <si>
+    <t>cortisol</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
     <t>sample</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>cortisol</t>
   </si>
   <si>
     <t>night_id</t>
@@ -637,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -661,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -669,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -685,23 +679,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -711,307 +689,274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>0.927</v>
+      </c>
+      <c r="D3">
+        <v>0.001</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>0.954</v>
+      </c>
+      <c r="D4">
+        <v>0.126</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>0.961</v>
+      </c>
+      <c r="D5">
+        <v>0.236</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>0.987</v>
+      </c>
+      <c r="D6">
+        <v>0.671</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0.912</v>
+      </c>
+      <c r="D7">
+        <v>0.006</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>0.953</v>
+      </c>
+      <c r="D8">
+        <v>0.132</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>0.982</v>
+      </c>
+      <c r="D9">
+        <v>0.433</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.037</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3">
-        <v>0.927</v>
-      </c>
-      <c r="E3">
-        <v>0.001</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>0.954</v>
-      </c>
-      <c r="E4">
-        <v>0.126</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>0.961</v>
-      </c>
-      <c r="E5">
-        <v>0.236</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="C11">
+        <v>0.975</v>
+      </c>
+      <c r="D11">
+        <v>0.593</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>0.987</v>
-      </c>
-      <c r="E6">
-        <v>0.671</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>0.912</v>
-      </c>
-      <c r="E7">
-        <v>0.006</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>0.953</v>
-      </c>
-      <c r="E8">
-        <v>0.132</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>0.982</v>
-      </c>
-      <c r="E9">
-        <v>0.433</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="E10">
-        <v>0.037</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>0.975</v>
-      </c>
-      <c r="E11">
-        <v>0.593</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12">
+        <v>0.974</v>
+      </c>
+      <c r="D12">
+        <v>0.153</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0.957</v>
+      </c>
+      <c r="D13">
+        <v>0.168</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12">
-        <v>0.974</v>
-      </c>
-      <c r="E12">
-        <v>0.153</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
+      <c r="C14">
+        <v>0.977</v>
+      </c>
+      <c r="D14">
+        <v>0.645</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>0.924</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
         <v>0.957</v>
       </c>
-      <c r="E13">
-        <v>0.168</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>0.977</v>
-      </c>
-      <c r="E14">
-        <v>0.645</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D16">
+        <v>0.163</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15">
-        <v>0.924</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16">
-        <v>0.957</v>
-      </c>
-      <c r="E16">
-        <v>0.163</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
+      <c r="C17">
+        <v>0.9389999999999999</v>
       </c>
       <c r="D17">
-        <v>0.9389999999999999</v>
-      </c>
-      <c r="E17">
         <v>0.048</v>
       </c>
-      <c r="F17" t="b">
+      <c r="E17" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="5">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1019,132 +964,114 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>0.007</v>
+      </c>
+      <c r="D3">
+        <v>0.993</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>0.215</v>
+      </c>
+      <c r="D4">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>0.007</v>
-      </c>
-      <c r="E3">
-        <v>0.993</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0.123</v>
+      </c>
+      <c r="D5">
+        <v>0.885</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>0.215</v>
-      </c>
-      <c r="E4">
-        <v>0.8070000000000001</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>3.002</v>
+      </c>
+      <c r="D6">
+        <v>0.053</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>0.123</v>
-      </c>
-      <c r="E5">
-        <v>0.885</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>3.002</v>
-      </c>
-      <c r="E6">
-        <v>0.053</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>5.337</v>
       </c>
       <c r="D7">
-        <v>5.337</v>
-      </c>
-      <c r="E7">
         <v>0.006</v>
       </c>
-      <c r="F7" t="b">
+      <c r="E7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1163,48 +1090,48 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1212,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>303.678</v>
@@ -1285,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>697.109</v>
@@ -1324,51 +1251,51 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1379,13 +1306,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1400,7 +1327,7 @@
         <v>141</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1409,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O3">
         <v>-0.834</v>
@@ -1426,13 +1353,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1447,19 +1374,19 @@
         <v>141</v>
       </c>
       <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
         <v>57</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
       </c>
       <c r="O4">
         <v>-1.247</v>
@@ -1473,13 +1400,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1494,7 +1421,7 @@
         <v>141</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1503,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O5">
         <v>-1.127</v>
@@ -1520,13 +1447,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -1541,7 +1468,7 @@
         <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1550,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O6">
         <v>-0.862</v>
@@ -1567,13 +1494,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -1588,7 +1515,7 @@
         <v>141</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1597,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O7">
         <v>-0.413</v>
@@ -1614,13 +1541,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1635,7 +1562,7 @@
         <v>141</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1644,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O8">
         <v>-0.359</v>
@@ -1661,13 +1588,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1682,7 +1609,7 @@
         <v>141</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <v>0.334</v>
@@ -1691,10 +1618,10 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O9">
         <v>-0.099</v>
@@ -1708,13 +1635,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1729,7 +1656,7 @@
         <v>141</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K10">
         <v>0.591</v>
@@ -1738,10 +1665,10 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O10">
         <v>0.031</v>
@@ -1755,13 +1682,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
         <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1776,7 +1703,7 @@
         <v>141</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1785,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O11">
         <v>0.29</v>
@@ -1802,13 +1729,13 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1823,7 +1750,7 @@
         <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1832,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O12">
         <v>0.246</v>
@@ -1846,16 +1773,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1870,7 +1797,7 @@
         <v>68.95</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K13">
         <v>0.515</v>
@@ -1879,10 +1806,10 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O13">
         <v>-0.136</v>
@@ -1893,16 +1820,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -1917,7 +1844,7 @@
         <v>69.502</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K14">
         <v>0.099</v>
@@ -1926,10 +1853,10 @@
         <v>0.297</v>
       </c>
       <c r="M14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O14">
         <v>-0.388</v>
@@ -1940,16 +1867,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
         <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1964,7 +1891,7 @@
         <v>60.109</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <v>0.193</v>
@@ -1973,10 +1900,10 @@
         <v>0.579</v>
       </c>
       <c r="M15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O15">
         <v>-0.286</v>
@@ -1987,16 +1914,16 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2011,7 +1938,7 @@
         <v>74.392</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K16">
         <v>0.799</v>
@@ -2020,10 +1947,10 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O16">
         <v>-0.052</v>
@@ -2034,16 +1961,16 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2058,7 +1985,7 @@
         <v>70.88</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K17">
         <v>0.261</v>
@@ -2067,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O17">
         <v>0.262</v>
@@ -2081,16 +2008,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
         <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2105,7 +2032,7 @@
         <v>76.212</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K18">
         <v>0.122</v>
@@ -2114,10 +2041,10 @@
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O18">
         <v>0.311</v>
@@ -2128,16 +2055,16 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2152,7 +2079,7 @@
         <v>62.564</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K19">
         <v>0.312</v>
@@ -2161,10 +2088,10 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O19">
         <v>-0.218</v>
@@ -2175,16 +2102,16 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2199,7 +2126,7 @@
         <v>69.065</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K20">
         <v>0.754</v>
@@ -2208,10 +2135,10 @@
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O20">
         <v>0.073</v>
@@ -2222,16 +2149,16 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
         <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2246,7 +2173,7 @@
         <v>71.27800000000001</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K21">
         <v>0.124</v>
@@ -2255,10 +2182,10 @@
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O21">
         <v>0.317</v>
@@ -2269,16 +2196,16 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2293,7 +2220,7 @@
         <v>69.857</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K22">
         <v>0.397</v>
@@ -2302,10 +2229,10 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O22">
         <v>-0.176</v>
@@ -2316,16 +2243,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2340,7 +2267,7 @@
         <v>70.687</v>
       </c>
       <c r="J23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K23">
         <v>0.122</v>
@@ -2349,10 +2276,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O23">
         <v>-0.363</v>
@@ -2363,16 +2290,16 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
         <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -2387,7 +2314,7 @@
         <v>65.098</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K24">
         <v>0.329</v>
@@ -2396,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O24">
         <v>-0.207</v>
@@ -2410,16 +2337,16 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
         <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -2434,7 +2361,7 @@
         <v>77.254</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K25">
         <v>0.535</v>
@@ -2443,10 +2370,10 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25">
         <v>-0.124</v>
@@ -2457,16 +2384,16 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -2481,7 +2408,7 @@
         <v>61.754</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K26">
         <v>0.01</v>
@@ -2490,10 +2417,10 @@
         <v>0.15</v>
       </c>
       <c r="M26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26">
         <v>-0.617</v>
@@ -2504,16 +2431,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>21</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2528,7 +2455,7 @@
         <v>54.614</v>
       </c>
       <c r="J27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K27">
         <v>0.022</v>
@@ -2537,10 +2464,10 @@
         <v>0.33</v>
       </c>
       <c r="M27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O27">
         <v>-0.533</v>
@@ -2551,16 +2478,16 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
         <v>20</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -2575,7 +2502,7 @@
         <v>82.28700000000001</v>
       </c>
       <c r="J28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K28">
         <v>0.771</v>
@@ -2584,10 +2511,10 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O28">
         <v>0.057</v>
@@ -2598,16 +2525,16 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
         <v>20</v>
       </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -2622,7 +2549,7 @@
         <v>58.234</v>
       </c>
       <c r="J29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K29">
         <v>0.012</v>
@@ -2631,10 +2558,10 @@
         <v>0.18</v>
       </c>
       <c r="M29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O29">
         <v>-0.605</v>
@@ -2645,16 +2572,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
         <v>21</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -2669,7 +2596,7 @@
         <v>53.721</v>
       </c>
       <c r="J30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K30">
         <v>0.005</v>
@@ -2678,10 +2605,10 @@
         <v>0.075</v>
       </c>
       <c r="M30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O30">
         <v>-0.663</v>
